--- a/psp forms/Requerimientos_Program_4.xlsx
+++ b/psp forms/Requerimientos_Program_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaher\Google Drive\Especialización\1-PRIMER SEMESTRE\Conceptos Avanzados en Ingeniería de SW\Semana 7\Tarea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaher\Desktop\psp2-program-4\psp forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -78,15 +78,6 @@
   </si>
   <si>
     <t>Calcular el algoritmo natural para los n  de números reales</t>
-  </si>
-  <si>
-    <t>Verificar si es LOC o Paginas</t>
-  </si>
-  <si>
-    <t>Verificar si el archivo plano ingresado tiene registros de LOC/Metodos o Paginas/Capitulo</t>
-  </si>
-  <si>
-    <t>Valor con true o false</t>
   </si>
   <si>
     <t>Valor del algoritmo natural para los n pares de números reales del archivo</t>
@@ -524,20 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="26.42578125" customWidth="1"/>
+    <col min="2" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,11 +556,8 @@
       <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,31 +565,28 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,31 +594,28 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -644,28 +626,25 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,27 +652,24 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
